--- a/raw_data/sw_id_6.12-29.xlsx
+++ b/raw_data/sw_id_6.12-29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goodluck\Desktop\DB\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C8D386-50BE-42C6-A541-CEEA874BD5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8139969D-D970-477F-897E-4B6F20252B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="4545" windowWidth="28905" windowHeight="15285" xr2:uid="{41A1141D-20C6-42B3-A03A-02940D2E0FD9}"/>
+    <workbookView xWindow="15645" yWindow="4350" windowWidth="28905" windowHeight="15285" xr2:uid="{41A1141D-20C6-42B3-A03A-02940D2E0FD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -669,7 +669,7 @@
   <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A2" sqref="A2:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
